--- a/my_food_spot/요구사항명세서/나만의 맛집 요구사항 명세서.xlsx
+++ b/my_food_spot/요구사항명세서/나만의 맛집 요구사항 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java_gny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java_gny\my_food_spot\요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>RQ-0008</t>
-  </si>
-  <si>
-    <t>메인</t>
   </si>
   <si>
     <t>RQ-0009</t>
@@ -326,90 +323,6 @@
   </si>
   <si>
     <t>RQ-0080</t>
-  </si>
-  <si>
-    <t>수강 과목 등록</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 신청</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 등록 취소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 검색</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강 과목 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생등 등록된 수강과목을 신청한다
-- 정원이 다 차면 수강신청을 할 수 없다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생은 신청한 수강 과목을 취소할 수 있다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입(학생)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입(교수)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(학생/교수)는 회원정보를 수정할 수 있다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강시간표확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청한 수강과목을 시간표로 확인한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생은 과목 코드 또는 과목명으로 수강 과목을 검색한다</t>
-  </si>
-  <si>
-    <t>학생은 선택한 수강 과목을 확인한다
-- 과목명, 과목코드, 과목교수, 과목일정, 학점, 시간표, 정원, 신청인원, 이수구분, 분반</t>
-  </si>
-  <si>
-    <t>교수는 교수정보를 입력하여 회원가입을 한다
-- 아이디, 비밀번호, 비번확인, 이름, 주번, 담당학과, 학사 졸업학교, 석사졸업학교, 박사졸업학교
-- 교수는 담당학과가 하나이다</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생은 학생 정보를 입력하여 회원가입을 한다
-- 아이디, 비번, 비번확인, 이름, 주번, 학과, 학생구분(학 석 박사)
-- 아이디는 8자 이상 15자 이하여야 한다.
-- 학번은 연도,과번호,번호로 이루어져있다.
-- 비번은 12자 이상 20자 이하
-- 주민번호  '-' 포함 14자
-- 이름은 영문과 한글이 가능하며 최대 50자까지 가능</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자는 수강 과목 정보와 수강 신청 기간을 등록한다
-- 과목명, 과목코드, 과목교수, 과목 일정, 학점, 시간표, 정원, 이수구분, 분반
-- 과목은 한명의 교수만 등록할 수 있다.
-- 이미 과목이 있는 교수는 등록할 수 없다.
-- 과목 코드는 앞 세글자는 영문으로 되어있고 분류에 해당하며, 뒤 세 글자는 숫자로 되어있고 분류에서의 순번을 의미한다. (예: 기초수학과학분류이고 3번째인 과목의 과목코드는 BSM003)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>회원 가입(사용자)</t>
@@ -455,34 +368,1273 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>상단바 메뉴(가로 1000px초과)</t>
+    <t>메뉴</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>가로가 1000px을 초과하면 메뉴를 상단에 가로로 배치한다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로가 1000px이하면 메뉴를 측면에 세로로 배치한다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단바 메뉴 표시(가로 1000px초과)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>측면 메뉴 표시(가로 1000px이하)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 메뉴 표시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 중앙에 대한민국 지도를 배치한다.
+- 다음 카카오 지도 API 사용
+- 시/도에 마우스를 올려놓을 시 해당 지역을 좀 더 진하게 표시한다.
+- 시/도에 마우스를 올려놓을 시 등록된 맛집의 개수를 지도 위에 표시한다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 등록 맛집 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛집 메이트의 최근 등록 맛집</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1~24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선순위가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배정되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력될</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확률을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>높힌다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코멘트가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선으로하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전혀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옆으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화살표를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개까지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맛집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>상단바 메뉴에 이동 가능한 페이지 목록을 나타낸다. (home, spot, mate)
-- home : 메인페이지
+- home : 메인페이지, 접속한 주소 근처에 따라 다른사람들이 새로 등록한 맛집을 출력한다.
 - spot : 내가 등록한 맛집 리스트
 - mate : 맛집메이트 리스트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴</t>
+    <t>맛집메이트들이 가장 최근 등록한 맛집을 최대 10개까지 출력한다.
+- 최대숫자는 나중에 수정할 수 있도록 한다.
+- 맛집분류, 맛집이름, 코멘트(없으면생략), 맛집사진(없으면생략), 등록한 맛집메이트의 닉네임과 좋아요 여부를 출력한다.
+- 게시 기간은 정해져있지 않으며, 무조건 최근 10개의 등록 맛집을 출력한다.
+- 등록된 맛집메이트의 닉네임을 클릭해 해당 맛집메이트의 맛집Spot페이지에 방문이 가능하다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>가로가 1000px을 초과하면 메뉴를 상단에 가로로 출력한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>측면 메뉴(가로 1000px이하)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가로가 1000px이하면 메뉴를 측면에 세로로 배치한다.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>가로가 1000px을 초과하면 메뉴를 상단에 가로로 배치한다.</t>
+    <t>나만의
+맛집 spot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +1645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -547,6 +1699,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -602,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +1852,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,6 +1862,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1017,15 +2187,15 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
@@ -1080,13 +2250,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="11"/>
@@ -1102,13 +2272,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="11"/>
@@ -1122,13 +2292,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="11"/>
@@ -1142,13 +2312,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="11"/>
@@ -1162,13 +2332,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="11"/>
@@ -1181,12 +2351,14 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" s="12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="11"/>
@@ -1194,28 +2366,40 @@
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>111</v>
+      </c>
       <c r="F9" s="23"/>
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="F10" s="23"/>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
@@ -1225,7 +2409,7 @@
     <row r="11" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1239,7 +2423,7 @@
     <row r="12" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1250,59 +2434,47 @@
       <c r="I12" s="12"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>109</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="23"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
       <c r="I14" s="12"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="11"/>
@@ -1313,77 +2485,53 @@
     <row r="16" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>105</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="23"/>
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>106</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="23"/>
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
       <c r="I17" s="12"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="23"/>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>107</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="23"/>
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
@@ -1393,17 +2541,11 @@
     <row r="20" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>102</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
@@ -1413,17 +2555,11 @@
     <row r="21" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>104</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="23"/>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
@@ -1433,10 +2569,10 @@
     <row r="22" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="18"/>
@@ -1449,10 +2585,10 @@
     <row r="23" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="13"/>
@@ -1465,10 +2601,10 @@
     <row r="24" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="18"/>
@@ -1481,10 +2617,10 @@
     <row r="25" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="18"/>
@@ -1497,10 +2633,10 @@
     <row r="26" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="18"/>
@@ -1513,10 +2649,10 @@
     <row r="27" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="18"/>
@@ -1529,10 +2665,10 @@
     <row r="28" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="18"/>
@@ -1545,10 +2681,10 @@
     <row r="29" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
@@ -1561,10 +2697,10 @@
     <row r="30" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="18"/>
@@ -1577,10 +2713,10 @@
     <row r="31" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="18"/>
@@ -1593,10 +2729,10 @@
     <row r="32" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="18"/>
@@ -1609,10 +2745,10 @@
     <row r="33" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="18"/>
@@ -1625,10 +2761,10 @@
     <row r="34" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="18"/>
@@ -1641,10 +2777,10 @@
     <row r="35" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
@@ -1657,10 +2793,10 @@
     <row r="36" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
@@ -1673,10 +2809,10 @@
     <row r="37" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
@@ -1689,10 +2825,10 @@
     <row r="38" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="25"/>
       <c r="B38" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="18"/>
@@ -1705,10 +2841,10 @@
     <row r="39" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="18"/>
@@ -1721,10 +2857,10 @@
     <row r="40" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="18"/>
@@ -1737,10 +2873,10 @@
     <row r="41" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
       <c r="B41" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="30"/>
@@ -1753,10 +2889,10 @@
     <row r="42" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="25"/>
       <c r="B42" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="18"/>
@@ -1769,10 +2905,10 @@
     <row r="43" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="18"/>
@@ -1785,10 +2921,10 @@
     <row r="44" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="25"/>
       <c r="B44" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="18"/>
@@ -1801,10 +2937,10 @@
     <row r="45" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
@@ -1817,10 +2953,10 @@
     <row r="46" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="25"/>
       <c r="B46" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="18"/>
@@ -1833,10 +2969,10 @@
     <row r="47" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="25"/>
       <c r="B47" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="18"/>
@@ -1849,7 +2985,7 @@
     <row r="48" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="25"/>
       <c r="B48" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1863,7 +2999,7 @@
     <row r="49" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="25"/>
       <c r="B49" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1877,7 +3013,7 @@
     <row r="50" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="25"/>
       <c r="B50" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1891,7 +3027,7 @@
     <row r="51" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="25"/>
       <c r="B51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1905,7 +3041,7 @@
     <row r="52" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="25"/>
       <c r="B52" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1919,7 +3055,7 @@
     <row r="53" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="25"/>
       <c r="B53" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1933,7 +3069,7 @@
     <row r="54" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="25"/>
       <c r="B54" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1947,7 +3083,7 @@
     <row r="55" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="25"/>
       <c r="B55" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1961,7 +3097,7 @@
     <row r="56" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -1975,7 +3111,7 @@
     <row r="57" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="25"/>
       <c r="B57" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1989,7 +3125,7 @@
     <row r="58" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
       <c r="B58" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2003,7 +3139,7 @@
     <row r="59" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
       <c r="B59" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2017,7 +3153,7 @@
     <row r="60" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -2031,7 +3167,7 @@
     <row r="61" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
       <c r="B61" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2045,7 +3181,7 @@
     <row r="62" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
       <c r="B62" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2059,7 +3195,7 @@
     <row r="63" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2073,7 +3209,7 @@
     <row r="64" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2087,7 +3223,7 @@
     <row r="65" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
       <c r="B65" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2101,7 +3237,7 @@
     <row r="66" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
       <c r="B66" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2115,7 +3251,7 @@
     <row r="67" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
       <c r="B67" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2129,7 +3265,7 @@
     <row r="68" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
       <c r="B68" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2143,7 +3279,7 @@
     <row r="69" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
       <c r="B69" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2157,7 +3293,7 @@
     <row r="70" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
       <c r="B70" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2171,7 +3307,7 @@
     <row r="71" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
       <c r="B71" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2185,7 +3321,7 @@
     <row r="72" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
       <c r="B72" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2199,7 +3335,7 @@
     <row r="73" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="25"/>
       <c r="B73" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2213,7 +3349,7 @@
     <row r="74" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
       <c r="B74" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2227,7 +3363,7 @@
     <row r="75" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
       <c r="B75" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2241,7 +3377,7 @@
     <row r="76" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
       <c r="B76" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2255,7 +3391,7 @@
     <row r="77" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
       <c r="B77" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -2269,7 +3405,7 @@
     <row r="78" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -2283,7 +3419,7 @@
     <row r="79" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
       <c r="B79" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -2297,7 +3433,7 @@
     <row r="80" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="25"/>
       <c r="B80" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -2311,7 +3447,7 @@
     <row r="81" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="25"/>
       <c r="B81" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -2325,7 +3461,7 @@
     <row r="82" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="31"/>
       <c r="B82" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -2339,8 +3475,8 @@
     <row r="83" spans="1:10" s="7" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="15"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="14"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -2350,8 +3486,8 @@
     </row>
     <row r="84" spans="1:10" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="15"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -2360,8 +3496,8 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="16"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>

--- a/my_food_spot/요구사항명세서/나만의 맛집 요구사항 명세서.xlsx
+++ b/my_food_spot/요구사항명세서/나만의 맛집 요구사항 명세서.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">시트1!$B$2:$I$82</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>RQ-ID</t>
   </si>
@@ -1626,15 +1626,55 @@
   </si>
   <si>
     <t>맛집메이트들이 가장 최근 등록한 맛집을 최대 10개까지 출력한다.
-- 최대숫자는 나중에 수정할 수 있도록 한다.
 - 맛집분류, 맛집이름, 코멘트(없으면생략), 맛집사진(없으면생략), 등록한 맛집메이트의 닉네임과 좋아요 여부를 출력한다.
 - 게시 기간은 정해져있지 않으며, 무조건 최근 10개의 등록 맛집을 출력한다.
 - 등록된 맛집메이트의 닉네임을 클릭해 해당 맛집메이트의 맛집Spot페이지에 방문이 가능하다.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>나만의
-맛집 spot</t>
+    <t>my spot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 맛집 spot 상단메뉴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심등록한 맛집 메뉴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 나의 맛집</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛집 메이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 맛집</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 등록한 맛집들을 출력한다.
+- 기본정렬은 최근등록순이다.
+- 이외의 정렬로는 관심등록순, 이름순, 등록순</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 관심등록한 맛집을 출력
+- 기본정렬로는 최근 관심등록한 순으로 정렬한다.
+- 이외의 정렬로는 맛집리스트에 최근 등록한 순, 등록순, 인기순, 이름순 정렬이 있다.
+- 인기순 정렬을 선택하면 많은 사람들이 관심등록한 순서로 정렬된다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 맛집 메뉴 출력
+- 관심등록한 맛집 : 관심등록한 맛집을 출력(최근등록순, 최근관심등록순, 등록순, 인기순, 이름순으로 정렬가능)
+　이 때, 인기순은 '많은 사람들이 관심등록한 순서'
+- 최근 등록한 맛집 : 최근 등록한 맛집을 출력
+- 지역별 나의 맛집 : 선택한 지역(시도군, 구, 동으로 선택가능)
+- 맛집메이트 : 맛집메이트 목록 출력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2186,8 +2226,8 @@
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2386,7 +2426,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="12" t="s">
         <v>16</v>
@@ -2406,42 +2446,60 @@
       <c r="I10" s="10"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="7" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="F11" s="23"/>
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="12"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="F13" s="23"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
@@ -2453,8 +2511,12 @@
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>117</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
@@ -2462,7 +2524,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="10" t="s">
         <v>22</v>
@@ -2471,11 +2533,9 @@
         <v>114</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>108</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="23"/>
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
@@ -2538,14 +2598,20 @@
       <c r="I19" s="10"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="F20" s="23"/>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
